--- a/AkioAI/race_data/阪神ダ2000.xlsx
+++ b/AkioAI/race_data/阪神ダ2000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AkioAI\race_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AkioAI\AkioAI\race_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088702B2-DBD5-48ED-BB48-3E15D05644E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EA605B-430D-4E69-9F31-A4F4F5AA3873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -468,9 +468,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -672,7 +672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -713,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -795,7 +795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -836,7 +836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -877,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -918,7 +918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -959,7 +959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
